--- a/data/trans_camb/P3A_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.298427462605606</v>
+        <v>-6.912677816889364</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.19773361871986</v>
+        <v>-9.972791195616363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.178507534780485</v>
+        <v>-8.457485155419874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.505755349703708</v>
+        <v>-7.263839113470792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.808771424553861</v>
+        <v>-8.61281323228083</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.265524206477232</v>
+        <v>-7.15786536872499</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.273262746574238</v>
+        <v>-6.013825280495363</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.520359733090027</v>
+        <v>-8.468373638647128</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.685707519004441</v>
+        <v>-6.919939235937044</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.144990187528883</v>
+        <v>1.303529334497393</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.516864879785773</v>
+        <v>-2.728027049089066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.039944805926471</v>
+        <v>-1.163028838103655</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.812811741211095</v>
+        <v>1.988822006374395</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6157597334132879</v>
+        <v>0.3060142974615001</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.590044161828126</v>
+        <v>0.5657336398493483</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.03635227426450922</v>
+        <v>0.1924877492545707</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.65166412851393</v>
+        <v>-2.540281549738719</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.248148336146121</v>
+        <v>-1.382547826790941</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5115883744404043</v>
+        <v>-0.4943505930689732</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7365373802011705</v>
+        <v>-0.7350037370482643</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5901438130024161</v>
+        <v>-0.5846203817795194</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5901158895818125</v>
+        <v>-0.5799013388573815</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6737778526474828</v>
+        <v>-0.6639927041960949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5440098358682248</v>
+        <v>-0.5455241902758927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4764004486156652</v>
+        <v>-0.4760354144453095</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6654953038284748</v>
+        <v>-0.646826984276713</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.511634327806188</v>
+        <v>-0.5184457829702155</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1579182276269583</v>
+        <v>0.1572647946561986</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2402146108294975</v>
+        <v>-0.2303777931233828</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1129855424963255</v>
+        <v>-0.117341643757338</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2577750051506998</v>
+        <v>0.3106627248201048</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.128058576507535</v>
+        <v>0.09156278435425762</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09036193949507826</v>
+        <v>0.0868689183188163</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01473166649610741</v>
+        <v>0.02214998575318527</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2632898438636694</v>
+        <v>-0.2379923697814549</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1120078248206585</v>
+        <v>-0.1390177152985325</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.737301498297348</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.254972391592459</v>
+        <v>-1.25497239159246</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.389899241762751</v>
@@ -869,7 +869,7 @@
         <v>-1.578328995059352</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.105294109303579</v>
+        <v>1.105294109303578</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3397255249897452</v>
@@ -878,7 +878,7 @@
         <v>-2.152063364059573</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.1002025889287321</v>
+        <v>-0.1002025889287314</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.101512396884217</v>
+        <v>-3.850135911002525</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.762124455263226</v>
+        <v>-5.981218789915683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.435274358065818</v>
+        <v>-4.444175536558999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.764774959791432</v>
+        <v>-1.7485741062322</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.099974594790054</v>
+        <v>-4.085515496419436</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.864339841824326</v>
+        <v>-1.379234796954621</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.884224316762696</v>
+        <v>-1.951478152651951</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.093567526418741</v>
+        <v>-4.235499613427606</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.271178382304773</v>
+        <v>-2.165902109686626</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.689495208601337</v>
+        <v>2.632041701059363</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1122625699817591</v>
+        <v>0.1687080706376941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.681364817508269</v>
+        <v>1.601323908268034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.040526407454845</v>
+        <v>4.94248827986397</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.094555729072757</v>
+        <v>0.9275950527796183</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.506624671046104</v>
+        <v>3.535507354986365</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.712882666316262</v>
+        <v>2.771829798609128</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.2614911803816069</v>
+        <v>-0.2540581447362116</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.878691469633755</v>
+        <v>1.804967320461762</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5197591273065574</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2382943038805378</v>
+        <v>-0.238294303880538</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3634879297271928</v>
@@ -974,7 +974,7 @@
         <v>-0.4127662794570059</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2890576924273178</v>
+        <v>0.2890576924273176</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.07482416898817462</v>
@@ -983,7 +983,7 @@
         <v>-0.4739895621046247</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.02206950875205025</v>
+        <v>-0.02206950875205009</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5964056806606429</v>
+        <v>-0.5579284436253839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8004709036011903</v>
+        <v>-0.8176068758856737</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.584796460498397</v>
+        <v>-0.5997728137602503</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3917023289340875</v>
+        <v>-0.3795635318559661</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7942140954747331</v>
+        <v>-0.7938881934834637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.352784252837864</v>
+        <v>-0.2804661339464775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3543450196961856</v>
+        <v>-0.3577418859197886</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7177682848237168</v>
+        <v>-0.7252588702722592</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3945754359168052</v>
+        <v>-0.360938731336316</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8058461507858394</v>
+        <v>0.7495423066921126</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1286861007691781</v>
+        <v>0.09221930023845999</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.543944239757693</v>
+        <v>0.4979034242108594</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.941570172116787</v>
+        <v>1.874164455152739</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6619762337716169</v>
+        <v>0.6926873531179992</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.584469884521317</v>
+        <v>1.450540658290479</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7517100197918073</v>
+        <v>0.7871469467390831</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.04252466859639367</v>
+        <v>-0.04798711191967075</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5924354655575361</v>
+        <v>0.524594540117941</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.8430955043867532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.462240018173428</v>
+        <v>1.462240018173427</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.671735075178763</v>
@@ -1083,7 +1083,7 @@
         <v>-0.3757465517810657</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.032881936700628</v>
+        <v>5.032881936700625</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.4096902861590125</v>
@@ -1092,7 +1092,7 @@
         <v>-0.7299022567422917</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.476227325005037</v>
+        <v>2.476227325005039</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.144604790382647</v>
+        <v>-2.115373393427666</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.706128556227057</v>
+        <v>-2.795233525052937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6125357422167481</v>
+        <v>-0.5147212437020824</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.845232195898592</v>
+        <v>-2.156242085294162</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.451809589233005</v>
+        <v>-3.344846632207972</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.069207573717938</v>
+        <v>0.7972143353995924</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.122314580039537</v>
+        <v>-1.323025567521471</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.295818037599312</v>
+        <v>-2.311154939347499</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6923388040654009</v>
+        <v>0.4038256591267863</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.61652329876743</v>
+        <v>1.594111779426198</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7923587947025612</v>
+        <v>0.791147118774071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.623376992682177</v>
+        <v>3.638859457823753</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.180422162452849</v>
+        <v>4.935507164053661</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.498507926951411</v>
+        <v>3.200110311526615</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.341801620048608</v>
+        <v>9.160002570316486</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.006447657303984</v>
+        <v>1.961683949844566</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9012724870680071</v>
+        <v>0.9182785608557074</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.387380238860659</v>
+        <v>4.490900651137131</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3337728150064281</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5788857425301959</v>
+        <v>0.5788857425301956</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6593555286231938</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1481996579221466</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.985038526224925</v>
+        <v>1.985038526224924</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1620489060455986</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2887055569079179</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9794470181349157</v>
+        <v>0.9794470181349163</v>
       </c>
     </row>
     <row r="20">
@@ -1208,29 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5744953631211789</v>
+        <v>-0.5692604365987877</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7490075968836982</v>
+        <v>-0.7284783286483899</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2215706582279402</v>
+        <v>-0.2172775907971649</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4877328112359411</v>
+        <v>-0.5924233201212558</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>0.0693556722075096</v>
+        <v>-0.02164869132999671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3534796936559879</v>
+        <v>-0.394390480629408</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6793699531860988</v>
+        <v>-0.6635260614009306</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1576820732230093</v>
+        <v>0.06914475016407765</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9737793476226301</v>
+        <v>1.027821355422082</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5948198201043083</v>
+        <v>0.6021991082206976</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.345763210160326</v>
+        <v>2.053375943859713</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.011765640515788</v>
+        <v>5.585823344723695</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>11.36904601923419</v>
+        <v>11.60163127654939</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.335339222509484</v>
+        <v>1.216929259631063</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4966328317462037</v>
+        <v>0.6886043486875828</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.553735490697442</v>
+        <v>2.735055433335208</v>
       </c>
     </row>
     <row r="22">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7593671997934781</v>
+        <v>-0.6835696243404753</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.222000133237689</v>
+        <v>-1.223198363495735</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.229005791637246</v>
+        <v>1.320526605888352</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8814164341472558</v>
+        <v>-1.014122463553725</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6187374331924487</v>
+        <v>-0.6083780980629145</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7955547804302318</v>
+        <v>0.8809252724495776</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4753033477452162</v>
+        <v>-0.4186243133814839</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.7673645361607985</v>
+        <v>-0.713359124234775</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.353598964358766</v>
+        <v>1.436585370553606</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.850426278069028</v>
+        <v>1.864140646815863</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9560669280447534</v>
+        <v>0.9407490838948165</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.30436555037872</v>
+        <v>4.342364739518174</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.895907878425547</v>
+        <v>1.774023876611721</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.027830507160838</v>
+        <v>1.943282387719348</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.082270099524353</v>
+        <v>3.214327184763559</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.361088050887447</v>
+        <v>1.368202583393249</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8631809387773075</v>
+        <v>0.9297767659214633</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.35586633803962</v>
+        <v>3.445290031886</v>
       </c>
     </row>
     <row r="25">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3054294283250983</v>
+        <v>-0.2905896159137613</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4670281547381807</v>
+        <v>-0.4646859287831249</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4627288103974816</v>
+        <v>0.4840288672979244</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5858417414331422</v>
+        <v>-0.6094198663472297</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4096603384934893</v>
+        <v>-0.4298823877481935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3418883067888788</v>
+        <v>0.3739791301328121</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2164810178361503</v>
+        <v>-0.2141963951231538</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3632126958364155</v>
+        <v>-0.3488980506923829</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5929799390382263</v>
+        <v>0.6403882053702652</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.346656302907852</v>
+        <v>1.280582808159293</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6417875283285128</v>
+        <v>0.6767920699383845</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.898564123416147</v>
+        <v>2.821982253428112</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.499743921194979</v>
+        <v>2.802169744555254</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.038181883774176</v>
+        <v>2.752015644108599</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.687479131016504</v>
+        <v>5.15350409547426</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9786292175761404</v>
+        <v>1.025399156972566</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6689401352282658</v>
+        <v>0.743090940663485</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.556051516326907</v>
+        <v>2.641484569853779</v>
       </c>
     </row>
     <row r="28">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.028820546055691</v>
+        <v>1.251998569009947</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6098397854203397</v>
+        <v>-0.8239572337944593</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3028154003669837</v>
+        <v>0.2582218331620059</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4814748364943535</v>
+        <v>-0.4598681513068</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.927010963827044</v>
+        <v>-2.109275429860359</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.023537186836309</v>
+        <v>2.276677728118373</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7185706936293428</v>
+        <v>0.6272309721925263</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8995825309897186</v>
+        <v>-0.8692839486492545</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.924672379361431</v>
+        <v>1.869542127997563</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.489161354926321</v>
+        <v>5.262906620850009</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.584912318032176</v>
+        <v>2.444707095447579</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.795108868157137</v>
+        <v>3.998652310507632</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.957211746689062</v>
+        <v>2.973452732037502</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.05347535624292</v>
+        <v>0.7950784621958772</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.33800605074439</v>
+        <v>5.517141036164252</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.394888079083232</v>
+        <v>3.311659858821076</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.168765173487983</v>
+        <v>1.248048927470631</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.344250270496088</v>
+        <v>4.3240450883772</v>
       </c>
     </row>
     <row r="31">
@@ -1632,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2683500460751626</v>
+        <v>0.3446389425231644</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3901297359068114</v>
+        <v>-0.4081456728528042</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.006094309264967348</v>
+        <v>-0.07072074960395612</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2081432367334134</v>
+        <v>-0.2238249449141463</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7550385890953735</v>
+        <v>-0.7804254846229731</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.651856826186064</v>
+        <v>0.6744544639407444</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2448807950014311</v>
+        <v>0.2554662951918087</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4481708071624422</v>
+        <v>-0.3965745217062335</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7899368150489422</v>
+        <v>0.8075958774326706</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>10.10406339705174</v>
+        <v>10.13295305109925</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5.964037804427846</v>
+        <v>4.340722962017775</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>6.669736212898353</v>
+        <v>6.430552863103349</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.04117926745445</v>
+        <v>2.981017135203565</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.390634862851064</v>
+        <v>0.9516753718324548</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>5.74045840146129</v>
+        <v>5.860631704673314</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>3.274090535205288</v>
+        <v>3.458371295896257</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.199996248306434</v>
+        <v>1.515736563539279</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>4.689320008408546</v>
+        <v>4.680579196659095</v>
       </c>
     </row>
     <row r="34">
@@ -1712,7 +1712,7 @@
         <v>-3.078861087898758</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-1.751509097616927</v>
+        <v>-1.751509097616926</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3.70890383652646</v>
@@ -1721,7 +1721,7 @@
         <v>1.625552910348041</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.576647732430307</v>
+        <v>4.57664773243031</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.538596642596045</v>
@@ -1730,7 +1730,7 @@
         <v>0.6741737055897854</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.239658001641495</v>
+        <v>3.239658001641496</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.37203843761191</v>
+        <v>-5.613061936486613</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.939942982915544</v>
+        <v>-6.462811561434627</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.113313365457249</v>
+        <v>-5.374548046682155</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.866071683290044</v>
+        <v>2.006255124032213</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.09139321481362941</v>
+        <v>0.1141768508438229</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.855855076204081</v>
+        <v>2.558480909184112</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.001385964183187</v>
+        <v>1.045150302362918</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.9621107107067832</v>
+        <v>-0.7480879994983841</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.636403635935246</v>
+        <v>1.573969558045995</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.6383377579384616</v>
+        <v>0.8125351065990475</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.3229062108174605</v>
+        <v>-0.3021734834294204</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.390698819658369</v>
+        <v>3.683248133726136</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.598292145491449</v>
+        <v>5.761549810644307</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.534577019119398</v>
+        <v>3.520692544572667</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.548163963174806</v>
+        <v>6.299215934617182</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.154854634563196</v>
+        <v>4.284566096592498</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.084447572754288</v>
+        <v>2.215402147894069</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.950565653095034</v>
+        <v>4.970850118000027</v>
       </c>
     </row>
     <row r="37">
@@ -1817,7 +1817,7 @@
         <v>-0.6178997478322941</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.3515121334954673</v>
+        <v>-0.3515121334954672</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>1.222698635697859</v>
@@ -1826,7 +1826,7 @@
         <v>0.5358891503638082</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.508764094502107</v>
+        <v>1.508764094502108</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.7444801822952527</v>
@@ -1835,7 +1835,7 @@
         <v>0.1977111900387933</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.9500765655980276</v>
+        <v>0.950076565598028</v>
       </c>
     </row>
     <row r="38">
@@ -1846,31 +1846,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7931302453411601</v>
+        <v>-0.8031518463561996</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8826250505355711</v>
+        <v>-0.8936295810006374</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.9085540622388607</v>
+        <v>-0.9103606827876773</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.438003825390284</v>
+        <v>0.505973369284156</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.04714949466819737</v>
+        <v>0.03135908419374679</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7673953923157719</v>
+        <v>0.7233473416608649</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2314336946088282</v>
+        <v>0.2304815088136851</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2282890893798583</v>
+        <v>-0.1975337509963598</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.380195169941339</v>
+        <v>0.3607178445905294</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1881,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2388631507470366</v>
+        <v>0.3148587092093851</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.01348618150473024</v>
+        <v>0.03749750317332921</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.127259353204626</v>
+        <v>1.60645785001659</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.363323347887264</v>
+        <v>2.418843254997005</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.43403146446487</v>
+        <v>1.477947024422069</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.74532146027588</v>
+        <v>2.851692759394822</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.528955999559922</v>
+        <v>1.42090371823857</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7830844529528007</v>
+        <v>0.7905528712412043</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.756181285295241</v>
+        <v>1.762922014569161</v>
       </c>
     </row>
     <row r="40">
@@ -1935,7 +1935,7 @@
         <v>-0.1188529836429912</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.625038810784265</v>
+        <v>2.625038810784266</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.6088499945194926</v>
@@ -1955,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.166420152881343</v>
+        <v>-1.137975560780387</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.408449330863688</v>
+        <v>-2.452934437993823</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.4024586716943189</v>
+        <v>-0.4661205017486151</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.4245980194114924</v>
+        <v>0.4351624387021537</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9902270623724418</v>
+        <v>-0.9669816916891045</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.762618404339085</v>
+        <v>1.847284744936305</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.09285936535207469</v>
+        <v>-0.05413599658481805</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.491786357932787</v>
+        <v>-1.481406754229664</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.9405086672931465</v>
+        <v>0.9275185319744493</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.7822568747113725</v>
+        <v>0.7535743096403927</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.6803102932537985</v>
+        <v>-0.7679123403884719</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.522645444584513</v>
+        <v>1.471999166569365</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.333917583690362</v>
+        <v>2.36127778335035</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.6818084673332075</v>
+        <v>0.7735478432493235</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.472103082710693</v>
+        <v>3.533367872316059</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.273673009533694</v>
+        <v>1.371007792518818</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.2509696152411552</v>
+        <v>-0.2401276405894401</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.304649986003803</v>
+        <v>2.205374356525273</v>
       </c>
     </row>
     <row r="43">
@@ -2040,7 +2040,7 @@
         <v>-0.03772496209700717</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.8332099590993226</v>
+        <v>0.8332099590993228</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1694245259147905</v>
@@ -2060,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2619529036486519</v>
+        <v>-0.2478487454787522</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5335835053537106</v>
+        <v>-0.5485582831822234</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.09078584525848009</v>
+        <v>-0.1013499327268478</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1192182932329678</v>
+        <v>0.1173774680880864</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2806383552299665</v>
+        <v>-0.2793594190711243</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4753443623355775</v>
+        <v>0.5032693033247139</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.02736145256243314</v>
+        <v>-0.01362157681125455</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3801179389341856</v>
+        <v>-0.3743387332229141</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2370770078994079</v>
+        <v>0.2273236943211944</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2204226236539254</v>
+        <v>0.213192396309946</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.181997276850849</v>
+        <v>-0.2108394740183614</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.421070523990019</v>
+        <v>0.4305376795844116</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8440438604214744</v>
+        <v>0.8570825946459356</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2531406911019701</v>
+        <v>0.2889748820014336</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.281205504455693</v>
+        <v>1.314113089917063</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3806336112619953</v>
+        <v>0.4217501298580551</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.07941352214787852</v>
+        <v>-0.0722419803465546</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.7064787295148172</v>
+        <v>0.6772121799211175</v>
       </c>
     </row>
     <row r="46">
